--- a/Output/Classifier Inference/SVM/All_Features_PCA Prediction Statistics.xlsx
+++ b/Output/Classifier Inference/SVM/All_Features_PCA Prediction Statistics.xlsx
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1019094109535217</v>
+        <v>0.1287548581759135</v>
       </c>
       <c r="B2" t="n">
-        <v>6.844151172163984e-05</v>
+        <v>8.647069051438114e-05</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Classifier Inference/SVM/All_Features_PCA Prediction Statistics.xlsx
+++ b/Output/Classifier Inference/SVM/All_Features_PCA Prediction Statistics.xlsx
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1287548581759135</v>
+        <v>0.1524440685908</v>
       </c>
       <c r="B2" t="n">
-        <v>8.647069051438114e-05</v>
+        <v>0.0001023801669515111</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Classifier Inference/SVM/All_Features_PCA Prediction Statistics.xlsx
+++ b/Output/Classifier Inference/SVM/All_Features_PCA Prediction Statistics.xlsx
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1524440685908</v>
+        <v>0.1457943757375081</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0001023801669515111</v>
+        <v>9.791428860813172e-05</v>
       </c>
     </row>
   </sheetData>
